--- a/analyzes/dist.xlsx
+++ b/analyzes/dist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Il mio Drive\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documenti\GitHub\Manutenzione-predittiva-BIESSE\analyzes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42EDEAC7-BDEB-4D1C-96FB-B50717C0196D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B3AF053-6E4F-490E-B746-6A56123D90BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4740" yWindow="1224" windowWidth="24612" windowHeight="14484" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Euclidean_dist" sheetId="1" r:id="rId1"/>
@@ -33,12 +33,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Media</t>
-  </si>
-  <si>
-    <t>Mediana</t>
   </si>
   <si>
     <t>AVG tot:</t>
@@ -407,8 +404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="K49" sqref="K49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -432,9 +429,6 @@
       <c r="H1" t="s">
         <v>0</v>
       </c>
-      <c r="I1" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
@@ -459,10 +453,7 @@
         <f t="shared" ref="H2:H48" si="0">AVERAGE(B2:F2)</f>
         <v>0.60750131878098979</v>
       </c>
-      <c r="I2" s="2">
-        <f>MEDIAN(B2:F2)</f>
-        <v>0.73171018259166642</v>
-      </c>
+      <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
@@ -487,10 +478,7 @@
         <f t="shared" si="0"/>
         <v>0.59665134439260825</v>
       </c>
-      <c r="I3" s="2">
-        <f t="shared" ref="I3:I48" si="1">MEDIAN(B3:F3)</f>
-        <v>0.58827294294051735</v>
-      </c>
+      <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
@@ -515,10 +503,7 @@
         <f t="shared" si="0"/>
         <v>0.39302694620844414</v>
       </c>
-      <c r="I4" s="2">
-        <f t="shared" si="1"/>
-        <v>0.43409777898874718</v>
-      </c>
+      <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
@@ -543,10 +528,7 @@
         <f t="shared" si="0"/>
         <v>0.50988036792283742</v>
       </c>
-      <c r="I5" s="2">
-        <f t="shared" si="1"/>
-        <v>0.64509301782563955</v>
-      </c>
+      <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
@@ -571,10 +553,7 @@
         <f t="shared" si="0"/>
         <v>0.60139550008508458</v>
       </c>
-      <c r="I6" s="2">
-        <f t="shared" si="1"/>
-        <v>0.63282573175976931</v>
-      </c>
+      <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
@@ -599,10 +578,7 @@
         <f t="shared" si="0"/>
         <v>0.49667914373408506</v>
       </c>
-      <c r="I7" s="2">
-        <f t="shared" si="1"/>
-        <v>0.59286137751541645</v>
-      </c>
+      <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
@@ -627,10 +603,7 @@
         <f t="shared" si="0"/>
         <v>0.59726028279954335</v>
       </c>
-      <c r="I8" s="2">
-        <f t="shared" si="1"/>
-        <v>0.61813144633956563</v>
-      </c>
+      <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
@@ -655,10 +628,7 @@
         <f t="shared" si="0"/>
         <v>0.30861223598994414</v>
       </c>
-      <c r="I9" s="2">
-        <f t="shared" si="1"/>
-        <v>0.2380478864807318</v>
-      </c>
+      <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
@@ -683,10 +653,7 @@
         <f t="shared" si="0"/>
         <v>0.47430085741798</v>
       </c>
-      <c r="I10" s="2">
-        <f t="shared" si="1"/>
-        <v>0.57449244941712796</v>
-      </c>
+      <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
@@ -711,10 +678,7 @@
         <f t="shared" si="0"/>
         <v>0.50368320299542102</v>
       </c>
-      <c r="I11" s="2">
-        <f t="shared" si="1"/>
-        <v>0.53623854878679511</v>
-      </c>
+      <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
@@ -739,10 +703,7 @@
         <f t="shared" si="0"/>
         <v>0.57427254260246519</v>
       </c>
-      <c r="I12" s="2">
-        <f t="shared" si="1"/>
-        <v>0.60493365560378298</v>
-      </c>
+      <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
@@ -767,10 +728,7 @@
         <f t="shared" si="0"/>
         <v>0.46585939163006457</v>
       </c>
-      <c r="I13" s="2">
-        <f t="shared" si="1"/>
-        <v>0.60303140290022406</v>
-      </c>
+      <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
@@ -795,10 +753,7 @@
         <f t="shared" si="0"/>
         <v>0.49409698317641748</v>
       </c>
-      <c r="I14" s="2">
-        <f t="shared" si="1"/>
-        <v>0.55540086738703887</v>
-      </c>
+      <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
@@ -823,10 +778,7 @@
         <f t="shared" si="0"/>
         <v>0.59497998416583331</v>
       </c>
-      <c r="I15" s="2">
-        <f t="shared" si="1"/>
-        <v>0.69919770676848148</v>
-      </c>
+      <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
@@ -851,10 +803,7 @@
         <f t="shared" si="0"/>
         <v>0.59384237617951985</v>
       </c>
-      <c r="I16" s="2">
-        <f t="shared" si="1"/>
-        <v>0.74052684831058546</v>
-      </c>
+      <c r="I16" s="2"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
@@ -879,10 +828,7 @@
         <f t="shared" si="0"/>
         <v>0.49409788008218525</v>
       </c>
-      <c r="I17" s="2">
-        <f t="shared" si="1"/>
-        <v>0.59944378567396106</v>
-      </c>
+      <c r="I17" s="2"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
@@ -907,10 +853,7 @@
         <f t="shared" si="0"/>
         <v>0.50794020370115356</v>
       </c>
-      <c r="I18" s="2">
-        <f t="shared" si="1"/>
-        <v>0.54154751953676949</v>
-      </c>
+      <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
@@ -935,10 +878,7 @@
         <f t="shared" si="0"/>
         <v>0.49564034089178843</v>
       </c>
-      <c r="I19" s="2">
-        <f t="shared" si="1"/>
-        <v>0.62586562068591556</v>
-      </c>
+      <c r="I19" s="2"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
@@ -963,10 +903,7 @@
         <f t="shared" si="0"/>
         <v>0.30836868836788056</v>
       </c>
-      <c r="I20" s="2">
-        <f t="shared" si="1"/>
-        <v>0.12165026176617701</v>
-      </c>
+      <c r="I20" s="2"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
@@ -991,10 +928,7 @@
         <f t="shared" si="0"/>
         <v>0.43097165194254661</v>
       </c>
-      <c r="I21" s="2">
-        <f t="shared" si="1"/>
-        <v>0.56062192579987724</v>
-      </c>
+      <c r="I21" s="2"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
@@ -1019,10 +953,7 @@
         <f t="shared" si="0"/>
         <v>0.42653620794243985</v>
       </c>
-      <c r="I22" s="2">
-        <f t="shared" si="1"/>
-        <v>0.50058655523228057</v>
-      </c>
+      <c r="I22" s="2"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
@@ -1047,10 +978,7 @@
         <f t="shared" si="0"/>
         <v>0.58680650374388965</v>
       </c>
-      <c r="I23" s="2">
-        <f t="shared" si="1"/>
-        <v>0.79880196567621042</v>
-      </c>
+      <c r="I23" s="2"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
@@ -1075,10 +1003,7 @@
         <f t="shared" si="0"/>
         <v>0.46717785055221617</v>
       </c>
-      <c r="I24" s="2">
-        <f t="shared" si="1"/>
-        <v>0.34244227950722639</v>
-      </c>
+      <c r="I24" s="2"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
@@ -1103,10 +1028,7 @@
         <f t="shared" si="0"/>
         <v>0.5097092369105064</v>
       </c>
-      <c r="I25" s="2">
-        <f t="shared" si="1"/>
-        <v>0.65396292139634793</v>
-      </c>
+      <c r="I25" s="2"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
@@ -1131,10 +1053,7 @@
         <f t="shared" si="0"/>
         <v>0.49524212194203959</v>
       </c>
-      <c r="I26" s="2">
-        <f t="shared" si="1"/>
-        <v>0.6167903728786136</v>
-      </c>
+      <c r="I26" s="2"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
@@ -1159,10 +1078,7 @@
         <f t="shared" si="0"/>
         <v>0.43788669450916612</v>
       </c>
-      <c r="I27" s="2">
-        <f t="shared" si="1"/>
-        <v>0.58748395834327216</v>
-      </c>
+      <c r="I27" s="2"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
@@ -1187,10 +1103,7 @@
         <f t="shared" si="0"/>
         <v>0.64304148670405537</v>
       </c>
-      <c r="I28" s="2">
-        <f t="shared" si="1"/>
-        <v>0.76334072602095104</v>
-      </c>
+      <c r="I28" s="2"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
@@ -1215,10 +1128,7 @@
         <f t="shared" si="0"/>
         <v>0.65399813949001995</v>
       </c>
-      <c r="I29" s="2">
-        <f t="shared" si="1"/>
-        <v>0.84580947607571733</v>
-      </c>
+      <c r="I29" s="2"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
@@ -1243,10 +1153,7 @@
         <f t="shared" si="0"/>
         <v>0.51041490017183655</v>
       </c>
-      <c r="I30" s="2">
-        <f t="shared" si="1"/>
-        <v>0.66835200773547643</v>
-      </c>
+      <c r="I30" s="2"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
@@ -1271,10 +1178,7 @@
         <f t="shared" si="0"/>
         <v>0.54240203207824533</v>
       </c>
-      <c r="I31" s="2">
-        <f t="shared" si="1"/>
-        <v>0.60516541743074237</v>
-      </c>
+      <c r="I31" s="2"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
@@ -1299,10 +1203,7 @@
         <f t="shared" si="0"/>
         <v>0.51534218114418184</v>
       </c>
-      <c r="I32" s="2">
-        <f t="shared" si="1"/>
-        <v>0.59494706299940636</v>
-      </c>
+      <c r="I32" s="2"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
@@ -1327,10 +1228,7 @@
         <f t="shared" si="0"/>
         <v>0.38879440085369354</v>
       </c>
-      <c r="I33" s="2">
-        <f t="shared" si="1"/>
-        <v>0.34910334742998023</v>
-      </c>
+      <c r="I33" s="2"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
@@ -1355,10 +1253,7 @@
         <f t="shared" si="0"/>
         <v>0.454455179076794</v>
       </c>
-      <c r="I34" s="2">
-        <f t="shared" si="1"/>
-        <v>0.59263178175459741</v>
-      </c>
+      <c r="I34" s="2"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
@@ -1383,10 +1278,7 @@
         <f t="shared" si="0"/>
         <v>0.41235166557647618</v>
       </c>
-      <c r="I35" s="2">
-        <f t="shared" si="1"/>
-        <v>0.2043852901345686</v>
-      </c>
+      <c r="I35" s="2"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
@@ -1411,10 +1303,7 @@
         <f t="shared" si="0"/>
         <v>0.5212272277224258</v>
       </c>
-      <c r="I36" s="2">
-        <f t="shared" si="1"/>
-        <v>0.57789344137839227</v>
-      </c>
+      <c r="I36" s="2"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
@@ -1439,10 +1328,7 @@
         <f t="shared" si="0"/>
         <v>0.51261677945329909</v>
       </c>
-      <c r="I37" s="2">
-        <f t="shared" si="1"/>
-        <v>0.55151055626480117</v>
-      </c>
+      <c r="I37" s="2"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
@@ -1467,10 +1353,7 @@
         <f t="shared" si="0"/>
         <v>0.54621195131921474</v>
       </c>
-      <c r="I38" s="2">
-        <f t="shared" si="1"/>
-        <v>0.66346938107662079</v>
-      </c>
+      <c r="I38" s="2"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
@@ -1495,10 +1378,7 @@
         <f t="shared" si="0"/>
         <v>0.49242700066403489</v>
       </c>
-      <c r="I39" s="2">
-        <f t="shared" si="1"/>
-        <v>0.63036378185699371</v>
-      </c>
+      <c r="I39" s="2"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
@@ -1523,10 +1403,7 @@
         <f t="shared" si="0"/>
         <v>0.51359463049075049</v>
       </c>
-      <c r="I40" s="2">
-        <f t="shared" si="1"/>
-        <v>0.57566465045597659</v>
-      </c>
+      <c r="I40" s="2"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
@@ -1551,10 +1428,7 @@
         <f t="shared" si="0"/>
         <v>0.54202262608202245</v>
       </c>
-      <c r="I41" s="2">
-        <f t="shared" si="1"/>
-        <v>0.64483536246148154</v>
-      </c>
+      <c r="I41" s="2"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
@@ -1579,10 +1453,7 @@
         <f t="shared" si="0"/>
         <v>0.58588928990226929</v>
       </c>
-      <c r="I42" s="2">
-        <f t="shared" si="1"/>
-        <v>0.70924775706838927</v>
-      </c>
+      <c r="I42" s="2"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
@@ -1607,10 +1478,7 @@
         <f t="shared" si="0"/>
         <v>0.4195306086935397</v>
       </c>
-      <c r="I43" s="2">
-        <f t="shared" si="1"/>
-        <v>0.43583284083402302</v>
-      </c>
+      <c r="I43" s="2"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
@@ -1635,10 +1503,7 @@
         <f t="shared" si="0"/>
         <v>0.54694254478777826</v>
       </c>
-      <c r="I44" s="2">
-        <f t="shared" si="1"/>
-        <v>0.61621613690217503</v>
-      </c>
+      <c r="I44" s="2"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
@@ -1663,10 +1528,7 @@
         <f t="shared" si="0"/>
         <v>0.54563593193321447</v>
       </c>
-      <c r="I45" s="2">
-        <f t="shared" si="1"/>
-        <v>0.6215849066253093</v>
-      </c>
+      <c r="I45" s="2"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
@@ -1691,10 +1553,7 @@
         <f t="shared" si="0"/>
         <v>0.54520127657667439</v>
       </c>
-      <c r="I46" s="2">
-        <f t="shared" si="1"/>
-        <v>0.60920032311212025</v>
-      </c>
+      <c r="I46" s="2"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
@@ -1719,10 +1578,7 @@
         <f t="shared" si="0"/>
         <v>0.44888264914012421</v>
       </c>
-      <c r="I47" s="2">
-        <f t="shared" si="1"/>
-        <v>0.243800278565036</v>
-      </c>
+      <c r="I47" s="2"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
@@ -1747,23 +1603,17 @@
         <f t="shared" si="0"/>
         <v>0.54485484030676501</v>
       </c>
-      <c r="I48" s="2">
-        <f t="shared" si="1"/>
-        <v>0.60744148361043104</v>
-      </c>
+      <c r="I48" s="2"/>
     </row>
     <row r="50" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G50" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H50" s="2">
         <f>AVERAGE(H2:H48)</f>
         <v>0.50762249363477596</v>
       </c>
-      <c r="I50" s="2">
-        <f>AVERAGE(I2:I48)</f>
-        <v>0.57137989404055167</v>
-      </c>
+      <c r="I50" s="2"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:F48">
